--- a/image/enrollmentresponse.xlsx
+++ b/image/enrollmentresponse.xlsx
@@ -619,45 +619,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="47.69921875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.83203125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="47.703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.921875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="34.5234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="54.171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="52.33203125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="22.671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/enrollmentresponse.xlsx
+++ b/image/enrollmentresponse.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="148">
   <si>
     <t>Path</t>
   </si>
@@ -168,7 +168,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -413,10 +413,6 @@
   </si>
   <si>
     <t>EnrollmentResponse.disposition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Disposition Message</t>
@@ -619,45 +615,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="35.921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="47.703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.921875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.5234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="47.69921875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.83203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="52.33203125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="54.171875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="22.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2239,13 +2235,13 @@
         <v>40</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2311,7 +2307,7 @@
         <v>40</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>40</v>
@@ -2325,7 +2321,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2348,13 +2344,13 @@
         <v>40</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2405,7 +2401,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -2420,7 +2416,7 @@
         <v>40</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>40</v>
@@ -2434,7 +2430,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2457,13 +2453,13 @@
         <v>40</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2514,7 +2510,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -2529,13 +2525,13 @@
         <v>40</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>40</v>
@@ -2543,7 +2539,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2566,13 +2562,13 @@
         <v>40</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2623,7 +2619,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -2641,7 +2637,7 @@
         <v>40</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>40</v>
